--- a/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>39</v>
@@ -636,28 +636,28 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>12</v>
@@ -799,28 +799,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.27272727272727</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>29.54545454545455</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>56.81818181818182</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>39</v>
@@ -842,28 +842,28 @@
         <v>26</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>44</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>24</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>103</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>102</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>50</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>24</v>
@@ -1119,28 +1119,28 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>27.27272727272727</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>29.54545454545455</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>56.81818181818182</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>50</v>
@@ -1165,28 +1165,28 @@
         <v>26</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>39</v>
@@ -1405,40 +1405,62 @@
         <v>26</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.27450980392157</v>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+        <v>36.89320388349515</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1557,34 +1579,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.527994375256208</v>
+        <v>0.5308984313463552</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.0512063517232221</v>
+        <v>0.08355793807577286</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.57920072697943</v>
+        <v>0.614456369422128</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.880884177898364</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
     </row>
   </sheetData>
@@ -1702,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.502178097787782</v>
+        <v>0.5019731405546051</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.01670243670797117</v>
+        <v>0.01799583332574312</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.01211596061578037</v>
+        <v>0.01839580672660766</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.5188805344957532</v>
+        <v>0.5199689738803481</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.01211596061578037</v>
+        <v>0.01839580672660766</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>94.57277070770527</v>
+        <v>93.24033789667247</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.145489068522551</v>
+        <v>3.342683989367675</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.281740223772186</v>
+        <v>3.416978113959853</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>97.71825977622782</v>
+        <v>96.58302188604014</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.281740223772186</v>
+        <v>3.416978113959853</v>
       </c>
     </row>
     <row r="5">
@@ -1737,34 +1759,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0.02581627746842597</v>
+        <v>0.02892529079175002</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0.03450391501525093</v>
+        <v>0.06556210475002974</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1528660424047895</v>
+        <v>0.154664781485193</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.06032019248367691</v>
+        <v>0.09448739554177976</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.1528660424047895</v>
+        <v>0.154664781485193</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.1097300123211</v>
+        <v>11.60948747745384</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.18487001907159</v>
+        <v>26.31408062829494</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>71.70539996860731</v>
+        <v>62.07643189425123</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>28.29460003139269</v>
+        <v>37.92356810574878</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>71.70539996860731</v>
+        <v>62.07643189425123</v>
       </c>
     </row>
     <row r="6">
@@ -1774,34 +1796,34 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.527994375256208</v>
+        <v>0.5308984313463552</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.0512063517232221</v>
+        <v>0.08355793807577286</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.57920072697943</v>
+        <v>0.614456369422128</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.880884177898365</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.9754745004801</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.9754745004801</v>
       </c>
     </row>
   </sheetData>
@@ -1921,34 +1943,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.880884177898364</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>52.16140789916761</v>
+        <v>59.12162881401942</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.17522117054031</v>
+        <v>31.43401784822161</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.66337093029206</v>
+        <v>9.444353337758965</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>85.33662906970793</v>
+        <v>90.55564666224103</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.66337093029206</v>
+        <v>9.444353337758965</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
@@ -1958,19 +1958,19 @@
         <v>21.97547450048009</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>59.12162881401942</v>
+        <v>58.3917026273341</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.43401784822161</v>
+        <v>31.41385117946972</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.444353337758965</v>
+        <v>10.19444619319619</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>90.55564666224103</v>
+        <v>89.80555380680381</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.444353337758965</v>
+        <v>10.19444619319619</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 31_summary.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>39</v>
@@ -636,28 +636,28 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>12</v>
@@ -799,28 +799,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.66666666666667</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>28.88888888888889</v>
+        <v>28.26086956521739</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>55.55555555555556</v>
+        <v>54.34782608695652</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
     </row>
     <row r="4">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>39</v>
@@ -842,28 +842,28 @@
         <v>26</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -937,10 +937,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>11</v>
@@ -956,10 +956,10 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>13</v>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>11</v>
@@ -1119,28 +1119,28 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>26.66666666666667</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>28.88888888888889</v>
+        <v>28.26086956521739</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>55.55555555555556</v>
+        <v>54.34782608695652</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
     </row>
     <row r="4">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>13</v>
@@ -1165,28 +1165,28 @@
         <v>26</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>39</v>
@@ -1405,28 +1405,28 @@
         <v>26</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>65</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>50</v>
@@ -1579,34 +1579,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5308984313463552</v>
+        <v>0.5308781136478118</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.08355793807577286</v>
+        <v>0.08353762037722963</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.614456369422128</v>
+        <v>0.6144157340250415</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054004</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
     </row>
   </sheetData>
@@ -1727,31 +1727,31 @@
         <v>0.5019731405546051</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.01799583332574312</v>
+        <v>0.01797551562719989</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>0.01839580672660766</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.5199689738803481</v>
+        <v>0.519948656181805</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>0.01839580672660766</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>93.24033789667247</v>
+        <v>93.24385688722218</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.342683989367675</v>
+        <v>3.339036038392027</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.416978113959853</v>
+        <v>3.417107074385811</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>96.58302188604014</v>
+        <v>96.5828929256142</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.416978113959853</v>
+        <v>3.417107074385811</v>
       </c>
     </row>
     <row r="5">
@@ -1759,34 +1759,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0.02892529079175002</v>
+        <v>0.02890497309320679</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>0.06556210475002974</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.154664781485193</v>
+        <v>0.155578571485193</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.09448739554177976</v>
+        <v>0.09446707784323653</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.154664781485193</v>
+        <v>0.155578571485193</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.60948747745384</v>
+        <v>11.55987843453366</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.31408062829494</v>
+        <v>26.22005418855153</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>62.07643189425123</v>
+        <v>62.22006737691481</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>37.92356810574878</v>
+        <v>37.77993262308519</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>62.07643189425123</v>
+        <v>62.22006737691481</v>
       </c>
     </row>
     <row r="6">
@@ -1796,34 +1796,34 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.5308984313463552</v>
+        <v>0.5308781136478118</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.08355793807577286</v>
+        <v>0.08353762037722964</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.614456369422128</v>
+        <v>0.6144157340250415</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>21.9754745004801</v>
+        <v>22.06704212945997</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054005</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>21.9754745004801</v>
+        <v>22.06704212945997</v>
       </c>
     </row>
   </sheetData>
@@ -1943,19 +1943,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054004</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>58.3917026273341</v>
